--- a/Energia.xlsx
+++ b/Energia.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+  <si>
+    <t>nome_var</t>
+  </si>
   <si>
     <t>Faixa</t>
   </si>
@@ -23,6 +26,120 @@
   </si>
   <si>
     <t>Porcentagem</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>1800</t>
   </si>
   <si>
     <t>G &lt;= 300</t>
@@ -395,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,330 +531,592 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2">
+        <v>186</v>
+      </c>
+      <c r="D2">
+        <v>0.9793597304128053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C3">
+        <v>2290</v>
+      </c>
+      <c r="D3">
+        <v>12.05770850884583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>150</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>200</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>250</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>300</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>350</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>400</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>450</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>500</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>550</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>600</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>650</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>700</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>750</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>800</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>850</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>900</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>950</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1000</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1050</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1100</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1150</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1200</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1250</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1300</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1350</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1400</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1450</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1500</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1550</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1600</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1650</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1700</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1750</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1800</v>
-      </c>
-      <c r="B38">
+      <c r="C4">
+        <v>3108</v>
+      </c>
+      <c r="D4">
+        <v>16.36478517270429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3518</v>
+      </c>
+      <c r="D5">
+        <v>18.52358887952822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3654</v>
+      </c>
+      <c r="D6">
+        <v>19.2396798652064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3593</v>
+      </c>
+      <c r="D7">
+        <v>18.91849199663016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1261</v>
+      </c>
+      <c r="D8">
+        <v>6.639637742207245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>779</v>
+      </c>
+      <c r="D9">
+        <v>4.101727042965459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>329</v>
+      </c>
+      <c r="D10">
+        <v>1.732308340353833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>169</v>
+      </c>
+      <c r="D11">
+        <v>0.8898483572030328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>0.3475147430497051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>0.1316343723673125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.05265374894692502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0.02106149957877001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>16349</v>
+      </c>
+      <c r="D39">
+        <v>86.08361415332772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>2643</v>
+      </c>
+      <c r="D40">
+        <v>13.91638584667228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>0</v>
       </c>
     </row>
